--- a/xls/示例表格.xlsx
+++ b/xls/示例表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="key1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,27 +803,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1355,138 +1352,138 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="40.2307692307692" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.46153846153846" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.1538461538462" style="5" customWidth="1"/>
-    <col min="4" max="4" width="85.2307692307692" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.23076923076923" style="5"/>
+    <col min="1" max="1" width="40.2307692307692" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.46153846153846" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.1538461538462" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.2307692307692" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.23076923076923" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1502,278 +1499,278 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="40.2307692307692" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.46153846153846" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6" style="5" customWidth="1"/>
-    <col min="4" max="4" width="85.2307692307692" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.3076923076923" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.2307692307692" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.46153846153846" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.2307692307692" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.3076923076923" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>100</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>100</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>100</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>300</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>300</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>300</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>300</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>300</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1786,71 +1783,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.8461538461538" style="4" customWidth="1"/>
-    <col min="2" max="3" width="10.3076923076923" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.8461538461538" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.3076923076923" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.8461538461538" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1858,13 +1847,13 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
     </row>
@@ -1872,13 +1861,13 @@
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1886,13 +1875,13 @@
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1900,13 +1889,13 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
